--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="28">
   <si>
     <t>a</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>nohs</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>4</v>
@@ -505,13 +508,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
@@ -547,7 +550,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -583,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>
@@ -619,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>11</v>
@@ -655,7 +658,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>6</v>
@@ -691,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>3</v>
@@ -727,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>15</v>
@@ -763,7 +766,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>21</v>
@@ -799,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>25</v>
@@ -835,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>13</v>
@@ -871,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>18</v>
@@ -907,7 +910,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>19</v>
@@ -943,7 +946,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>22</v>
@@ -979,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>24</v>
@@ -1015,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>7</v>
@@ -1051,7 +1054,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>23</v>
@@ -1087,7 +1090,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>20</v>
@@ -1123,7 +1126,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
@@ -1159,7 +1162,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>14</v>
@@ -1195,7 +1198,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>0</v>
@@ -1231,7 +1234,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>8</v>
@@ -1267,7 +1270,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>1</v>
@@ -1303,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>16</v>
@@ -1339,7 +1342,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>2</v>
@@ -1375,7 +1378,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>9</v>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>4</v>
@@ -514,7 +514,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
@@ -550,7 +550,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -586,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>
@@ -622,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>11</v>
@@ -658,7 +658,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>6</v>
@@ -694,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>3</v>
@@ -730,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>15</v>
@@ -766,7 +766,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>21</v>
@@ -802,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>25</v>
@@ -838,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>13</v>
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>18</v>
@@ -910,7 +910,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>19</v>
@@ -946,7 +946,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>22</v>
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>24</v>
@@ -1018,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>7</v>
@@ -1054,7 +1054,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>23</v>
@@ -1090,7 +1090,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>20</v>
@@ -1126,7 +1126,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
@@ -1162,7 +1162,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>14</v>
@@ -1198,7 +1198,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>8</v>
@@ -1270,7 +1270,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>16</v>
@@ -1342,7 +1342,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>2</v>
@@ -1378,7 +1378,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>9</v>
